--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Magnus Servio/Users/tim/Repos/DipSWDTestExercises/DipSWDTestExercise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102542177\Documents\GitHub\DipSWDTestExercise-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1082CD-D472-D14A-8422-2A234D6BDFCA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -254,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,29 +622,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -685,7 +684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -705,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -725,7 +724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -745,7 +744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -765,7 +764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -785,7 +784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -805,7 +804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -825,7 +824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -845,7 +844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -865,7 +864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -885,7 +884,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -905,7 +904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -925,7 +924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -945,7 +944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -953,7 +952,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
@@ -965,7 +964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -985,7 +984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1153,7 +1152,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1161,7 +1160,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
@@ -1171,7 +1170,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1179,7 +1178,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1187,7 +1186,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1195,7 +1194,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1203,7 +1202,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1211,7 +1210,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102542177\Documents\GitHub\DipSWDTestExercise-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ojas\Documents\GitHub\DipSWDTestExercise-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BC5AB7-86EE-488D-B902-9ADC4B4B6F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Class</t>
   </si>
@@ -248,13 +249,44 @@
   </si>
   <si>
     <t>vBus.maxPassengers = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FakePerson("Ojas", "Gupta", "M")
+</t>
+  </si>
+  <si>
+    <t>pFName = "Ojas", pLName = "Gupta", pGender = "M"</t>
+  </si>
+  <si>
+    <t>getName()</t>
+  </si>
+  <si>
+    <t>Call getName()</t>
+  </si>
+  <si>
+    <t>getName() should return "Ojas Gupta"</t>
+  </si>
+  <si>
+    <t>getGender()</t>
+  </si>
+  <si>
+    <t>Call getGender()</t>
+  </si>
+  <si>
+    <t>Check the firstName, lastName and getGender()</t>
+  </si>
+  <si>
+    <t>getGender() should return "M"</t>
+  </si>
+  <si>
+    <t>Driver("Bill", "Hamilton", "M", "GFD433")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +312,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,29 +663,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" customWidth="1"/>
+    <col min="5" max="5" width="41.26953125" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -684,7 +725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -704,7 +745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -724,7 +765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -744,7 +785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -764,7 +805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -784,7 +825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -804,7 +845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -824,7 +865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -844,7 +885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -864,7 +905,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -884,7 +925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -904,7 +945,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -924,7 +965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -944,107 +985,107 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1152,7 +1193,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1160,7 +1201,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
@@ -1170,7 +1211,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1178,7 +1219,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1186,7 +1227,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1194,7 +1235,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1202,7 +1243,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1210,7 +1251,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
